--- a/Leetcode/Leetcode Summary.xlsx
+++ b/Leetcode/Leetcode Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20415" windowHeight="9570"/>
+    <workbookView windowWidth="23895" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>Problems</t>
   </si>
@@ -85,6 +85,9 @@
     <t>https://leetcode.com/problems/add-digits/</t>
   </si>
   <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
     <t>Same Tree</t>
   </si>
   <si>
@@ -107,6 +110,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/first-unique-character-in-a-string/</t>
+  </si>
+  <si>
+    <t>Binary Watch</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-watch/</t>
   </si>
 </sst>
 </file>
@@ -114,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -136,9 +145,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,7 +161,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,21 +191,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,9 +245,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,59 +268,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,55 +290,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,127 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,21 +481,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,6 +498,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,21 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -577,145 +586,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1050,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.2" defaultRowHeight="31" customHeight="1" outlineLevelCol="6"/>
@@ -1165,7 +1174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1177,14 +1186,17 @@
       </c>
       <c r="D7" t="s">
         <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -1195,10 +1207,10 @@
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1207,26 +1219,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" customHeight="1" spans="1:3">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1246,6 +1278,7 @@
     <hyperlink ref="B9" r:id="rId8" display="https://leetcode.com/problems/ransom-note/"/>
     <hyperlink ref="B10" r:id="rId9" display="https://leetcode.com/problems/valid-anagram/"/>
     <hyperlink ref="B11" r:id="rId10" display="https://leetcode.com/problems/first-unique-character-in-a-string/"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://leetcode.com/problems/binary-watch/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Leetcode/Leetcode Summary.xlsx
+++ b/Leetcode/Leetcode Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>Problems</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Difficulty</t>
   </si>
   <si>
+    <t>Remark</t>
+  </si>
+  <si>
     <t>Reverse String</t>
   </si>
   <si>
@@ -94,18 +97,27 @@
     <t>https://leetcode.com/problems/same-tree/</t>
   </si>
   <si>
+    <t>HashMap</t>
+  </si>
+  <si>
     <t>Ransom Note</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/ransom-note/</t>
   </si>
   <si>
+    <t>Three Pointers</t>
+  </si>
+  <si>
     <t>Valid Anagram</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-anagram/</t>
   </si>
   <si>
+    <t>DP</t>
+  </si>
+  <si>
     <t>First Unique Character in a String</t>
   </si>
   <si>
@@ -116,6 +128,48 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-watch/</t>
+  </si>
+  <si>
+    <t>Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-left-leaves/</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-arrays-ii/</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-1-bits/</t>
+  </si>
+  <si>
+    <t>Binary folding</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
   </si>
 </sst>
 </file>
@@ -123,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,8 +199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,6 +215,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -175,13 +267,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -191,23 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,61 +290,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,11 +538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,7 +557,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,43 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,150 +609,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1059,15 +1113,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D12"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.2" defaultRowHeight="31" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="26.4" customWidth="1"/>
+    <col min="1" max="1" width="30.2" customWidth="1"/>
     <col min="2" max="2" width="52.5" customWidth="1"/>
     <col min="3" max="3" width="16.7" customWidth="1"/>
     <col min="4" max="6" width="13.2" customWidth="1"/>
@@ -1075,7 +1129,7 @@
     <col min="8" max="16384" width="13.2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,177 +1142,279 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1279,6 +1435,12 @@
     <hyperlink ref="B10" r:id="rId9" display="https://leetcode.com/problems/valid-anagram/"/>
     <hyperlink ref="B11" r:id="rId10" display="https://leetcode.com/problems/first-unique-character-in-a-string/"/>
     <hyperlink ref="B12" r:id="rId11" display="https://leetcode.com/problems/binary-watch/"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://leetcode.com/problems/sum-of-left-leaves/"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://leetcode.com/problems/intersection-of-two-arrays-ii/"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://leetcode.com/problems/reverse-linked-list/"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://leetcode.com/problems/number-of-1-bits/"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://leetcode.com/problems/climbing-stairs/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Leetcode/Leetcode Summary.xlsx
+++ b/Leetcode/Leetcode Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>Problems</t>
   </si>
@@ -124,6 +124,9 @@
     <t>https://leetcode.com/problems/first-unique-character-in-a-string/</t>
   </si>
   <si>
+    <t>Two sum</t>
+  </si>
+  <si>
     <t>Binary Watch</t>
   </si>
   <si>
@@ -170,6 +173,18 @@
   </si>
   <si>
     <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Evolve to 2Sum</t>
   </si>
 </sst>
 </file>
@@ -178,9 +193,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -215,6 +230,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -224,49 +322,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -276,60 +344,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,181 +365,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,39 +573,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,141 +617,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1113,10 +1128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.2" defaultRowHeight="31" customHeight="1" outlineLevelCol="6"/>
@@ -1299,7 +1314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1312,13 +1327,16 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -1329,10 +1347,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1343,10 +1361,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1357,10 +1375,10 @@
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1371,10 +1389,10 @@
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1385,10 +1403,10 @@
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1397,15 +1415,15 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -1414,7 +1432,24 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1441,6 +1476,7 @@
     <hyperlink ref="B16" r:id="rId15" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/"/>
     <hyperlink ref="B17" r:id="rId16" display="https://leetcode.com/problems/number-of-1-bits/"/>
     <hyperlink ref="B18" r:id="rId17" display="https://leetcode.com/problems/climbing-stairs/"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://leetcode.com/problems/3sum/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Leetcode/Leetcode Summary.xlsx
+++ b/Leetcode/Leetcode Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>Problems</t>
   </si>
@@ -133,18 +133,27 @@
     <t>https://leetcode.com/problems/binary-watch/</t>
   </si>
   <si>
+    <t>Two variables</t>
+  </si>
+  <si>
     <t>Sum of Left Leaves</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/sum-of-left-leaves/</t>
   </si>
   <si>
+    <t>FIFO</t>
+  </si>
+  <si>
     <t>Intersection of Two Arrays II</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/intersection-of-two-arrays-ii/</t>
   </si>
   <si>
+    <t>Tortoise-Hare</t>
+  </si>
+  <si>
     <t>Reverse Linked List</t>
   </si>
   <si>
@@ -185,6 +194,69 @@
   </si>
   <si>
     <t>Evolve to 2Sum</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Fake Header</t>
+  </si>
+  <si>
+    <t>Power of Four</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-four/</t>
+  </si>
+  <si>
+    <t>0xAAAAAAAA</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/swap-nodes-in-pairs/</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal-ii/</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-element/</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/symmetric-tree/</t>
+  </si>
+  <si>
+    <t>Compare each row</t>
   </si>
 </sst>
 </file>
@@ -192,12 +264,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,9 +286,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +391,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -244,111 +428,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -359,19 +438,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,163 +606,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,51 +632,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -614,6 +652,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +695,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -655,152 +734,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,6 +887,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1128,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.2" defaultRowHeight="31" customHeight="1" outlineLevelCol="6"/>
@@ -1174,7 +1256,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1331,7 +1413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1344,13 +1426,16 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1358,13 +1443,16 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1372,13 +1460,16 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1389,10 +1480,10 @@
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1403,10 +1494,10 @@
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1415,15 +1506,15 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -1432,24 +1523,138 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1477,6 +1682,15 @@
     <hyperlink ref="B17" r:id="rId16" display="https://leetcode.com/problems/number-of-1-bits/"/>
     <hyperlink ref="B18" r:id="rId17" display="https://leetcode.com/problems/climbing-stairs/"/>
     <hyperlink ref="B19" r:id="rId18" display="https://leetcode.com/problems/3sum/"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://leetcode.com/problems/merge-two-sorted-lists/"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://leetcode.com/problems/power-of-four/"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://leetcode.com/problems/swap-nodes-in-pairs/"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://leetcode.com/problems/house-robber/"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://leetcode.com/problems/linked-list-cycle/"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://leetcode.com/problems/remove-element/"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://leetcode.com/problems/symmetric-tree/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Leetcode/Leetcode Summary.xlsx
+++ b/Leetcode/Leetcode Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>Problems</t>
   </si>
@@ -257,6 +257,21 @@
   </si>
   <si>
     <t>Compare each row</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/</t>
+  </si>
+  <si>
+    <t>☆☆</t>
   </si>
 </sst>
 </file>
@@ -264,8 +279,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -288,8 +303,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="东文宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,8 +336,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +383,36 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -323,31 +420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,66 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -438,61 +452,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,121 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,40 +646,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -689,23 +679,41 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,11 +729,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,166 +748,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1210,18 +1227,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.2" defaultRowHeight="31" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="30.2" customWidth="1"/>
-    <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="2" max="2" width="57.2" customWidth="1"/>
     <col min="3" max="3" width="16.7" customWidth="1"/>
-    <col min="4" max="6" width="13.2" customWidth="1"/>
+    <col min="4" max="5" width="13.2" customWidth="1"/>
+    <col min="6" max="6" width="13.2" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.7" customWidth="1"/>
     <col min="8" max="16384" width="13.2" customWidth="1"/>
   </cols>
@@ -1247,7 +1265,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -1264,7 +1282,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -1281,7 +1299,7 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
@@ -1298,7 +1316,7 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
@@ -1315,7 +1333,7 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -1332,7 +1350,7 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
@@ -1349,7 +1367,7 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
@@ -1366,7 +1384,7 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
@@ -1383,7 +1401,7 @@
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
@@ -1400,7 +1418,7 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="s">
@@ -1417,7 +1435,7 @@
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
@@ -1434,7 +1452,7 @@
       <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="s">
@@ -1451,7 +1469,7 @@
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
@@ -1468,7 +1486,7 @@
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C15" t="s">
@@ -1482,7 +1500,7 @@
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C16" t="s">
@@ -1496,7 +1514,7 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C17" t="s">
@@ -1513,7 +1531,7 @@
       <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
@@ -1530,7 +1548,7 @@
       <c r="A19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C19" t="s">
@@ -1547,13 +1565,13 @@
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1561,7 +1579,7 @@
       <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C21" t="s">
@@ -1575,7 +1593,7 @@
       <c r="A22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C22" t="s">
@@ -1589,7 +1607,7 @@
       <c r="A23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C23" t="s">
@@ -1603,7 +1621,7 @@
       <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C24" t="s">
@@ -1614,7 +1632,7 @@
       <c r="A25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C25" t="s">
@@ -1625,7 +1643,7 @@
       <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C26" t="s">
@@ -1636,7 +1654,7 @@
       <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C27" t="s">
@@ -1647,7 +1665,7 @@
       <c r="A28" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C28" t="s">
@@ -1655,6 +1673,31 @@
       </c>
       <c r="E28" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1691,6 +1734,8 @@
     <hyperlink ref="B26" r:id="rId25" display="https://leetcode.com/problems/linked-list-cycle/"/>
     <hyperlink ref="B27" r:id="rId26" display="https://leetcode.com/problems/remove-element/"/>
     <hyperlink ref="B28" r:id="rId27" display="https://leetcode.com/problems/symmetric-tree/"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://leetcode.com/problems/balanced-binary-tree/"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Leetcode/Leetcode Summary.xlsx
+++ b/Leetcode/Leetcode Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>Problems</t>
   </si>
@@ -160,6 +160,9 @@
     <t>https://leetcode.com/problems/reverse-linked-list/</t>
   </si>
   <si>
+    <t>Reverse Input</t>
+  </si>
+  <si>
     <t>Remove Duplicates from Sorted List</t>
   </si>
   <si>
@@ -272,17 +275,36 @@
   </si>
   <si>
     <t>☆☆</t>
+  </si>
+  <si>
+    <t>2016.10.11</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle-ii/</t>
+  </si>
+  <si>
+    <t>combination: http://blog.csdn.net/perfumekristy/article/details/8713083</t>
+  </si>
+  <si>
+    <t>Palindrome Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-number/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -307,6 +329,104 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -316,19 +436,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -336,39 +450,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,67 +464,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -452,31 +474,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,49 +636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,97 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,17 +668,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,20 +710,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,11 +740,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,189 +765,177 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1227,21 +1252,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.2" defaultRowHeight="31" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="13.2" defaultRowHeight="31" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="30.2" customWidth="1"/>
-    <col min="2" max="2" width="57.2" customWidth="1"/>
-    <col min="3" max="3" width="16.7" customWidth="1"/>
-    <col min="4" max="5" width="13.2" customWidth="1"/>
-    <col min="6" max="6" width="13.2" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.7" customWidth="1"/>
-    <col min="8" max="16384" width="13.2" customWidth="1"/>
+    <col min="1" max="1" width="30.2" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.2" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7" style="2" customWidth="1"/>
+    <col min="4" max="6" width="13.2" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.2" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="13.2" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -1261,449 +1286,483 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" t="s">
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" t="s">
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" t="s">
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" t="s">
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" t="s">
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" t="s">
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" t="s">
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" t="s">
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
-      <formula1>$G:$G</formula1>
+      <formula1>$H:$H</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1736,6 +1795,8 @@
     <hyperlink ref="B28" r:id="rId27" display="https://leetcode.com/problems/symmetric-tree/"/>
     <hyperlink ref="B29" r:id="rId28" display="https://leetcode.com/problems/balanced-binary-tree/"/>
     <hyperlink ref="B30" r:id="rId29" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://leetcode.com/problems/pascals-triangle-ii/"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://leetcode.com/problems/palindrome-number/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Leetcode/Leetcode Summary.xlsx
+++ b/Leetcode/Leetcode Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>Problems</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Remark</t>
   </si>
   <si>
+    <t>Star</t>
+  </si>
+  <si>
     <t>Reverse String</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>Easy</t>
   </si>
   <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
     <t>Single Number</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t>Bit Magic</t>
   </si>
   <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
     <t>Maximum Depth of Binary Tree</t>
   </si>
   <si>
@@ -79,16 +88,19 @@
     <t>https://leetcode.com/problems/move-zeroes/</t>
   </si>
   <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Add Digits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-digits/</t>
+  </si>
+  <si>
     <t>Math trick</t>
   </si>
   <si>
-    <t>Add Digits</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/add-digits/</t>
-  </si>
-  <si>
-    <t>BackTracking</t>
+    <t>FIFO</t>
   </si>
   <si>
     <t>Same Tree</t>
@@ -106,69 +118,63 @@
     <t>https://leetcode.com/problems/ransom-note/</t>
   </si>
   <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-unique-character-in-a-string/</t>
+  </si>
+  <si>
+    <t>Reverse Input</t>
+  </si>
+  <si>
+    <t>Binary Watch</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-watch/</t>
+  </si>
+  <si>
     <t>Three Pointers</t>
   </si>
   <si>
-    <t>Valid Anagram</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/valid-anagram/</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>First Unique Character in a String</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/first-unique-character-in-a-string/</t>
+    <t>Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-left-leaves/</t>
+  </si>
+  <si>
+    <t>Tortoise-Hare</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-arrays-ii/</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/</t>
   </si>
   <si>
     <t>Two sum</t>
   </si>
   <si>
-    <t>Binary Watch</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-watch/</t>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
   </si>
   <si>
     <t>Two variables</t>
   </si>
   <si>
-    <t>Sum of Left Leaves</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sum-of-left-leaves/</t>
-  </si>
-  <si>
-    <t>FIFO</t>
-  </si>
-  <si>
-    <t>Intersection of Two Arrays II</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/intersection-of-two-arrays-ii/</t>
-  </si>
-  <si>
-    <t>Tortoise-Hare</t>
-  </si>
-  <si>
-    <t>Reverse Linked List</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/reverse-linked-list/</t>
-  </si>
-  <si>
-    <t>Reverse Input</t>
-  </si>
-  <si>
-    <t>Remove Duplicates from Sorted List</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
-  </si>
-  <si>
     <t>Number of 1 Bits</t>
   </si>
   <si>
@@ -277,22 +283,64 @@
     <t>☆☆</t>
   </si>
   <si>
+    <t>2016.10.10</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle-ii/</t>
+  </si>
+  <si>
+    <t>combination: http://blog.csdn.net/perfumekristy/article/details/8713083</t>
+  </si>
+  <si>
+    <t>Palindrome Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-number/</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-paths/</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/guess-number-higher-or-lower/</t>
+  </si>
+  <si>
+    <t>Notice overflow</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum/</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Notice the boundary</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/isomorphic-strings/</t>
+  </si>
+  <si>
+    <t>☆</t>
+  </si>
+  <si>
     <t>2016.10.11</t>
-  </si>
-  <si>
-    <t>Pascal's Triangle II</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/pascals-triangle-ii/</t>
-  </si>
-  <si>
-    <t>combination: http://blog.csdn.net/perfumekristy/article/details/8713083</t>
-  </si>
-  <si>
-    <t>Palindrome Number</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/palindrome-number/</t>
   </si>
 </sst>
 </file>
@@ -300,13 +348,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +366,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +386,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,48 +454,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,6 +470,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -413,9 +499,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,39 +521,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,13 +537,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,169 +669,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,11 +731,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,8 +749,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,6 +794,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -740,28 +820,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,152 +833,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,14 +991,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1252,10 +1321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.2" defaultRowHeight="31" customHeight="1" outlineLevelCol="7"/>
@@ -1269,7 +1338,7 @@
     <col min="9" max="16384" width="13.2" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,481 +1354,557 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="H1:H34">
+    <sortCondition ref="H1:H34"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>$H:$H</formula1>
@@ -1797,6 +1942,11 @@
     <hyperlink ref="B30" r:id="rId29" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/"/>
     <hyperlink ref="B31" r:id="rId30" display="https://leetcode.com/problems/pascals-triangle-ii/"/>
     <hyperlink ref="B32" r:id="rId31" display="https://leetcode.com/problems/palindrome-number/"/>
+    <hyperlink ref="B33" r:id="rId32" display="https://leetcode.com/problems/binary-tree-paths/"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://leetcode.com/problems/guess-number-higher-or-lower/"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://leetcode.com/problems/path-sum/"/>
+    <hyperlink ref="B36" r:id="rId35" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/"/>
+    <hyperlink ref="B37" r:id="rId36" display="https://leetcode.com/problems/isomorphic-strings/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Leetcode/Leetcode Summary.xlsx
+++ b/Leetcode/Leetcode Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>Problems</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>2016.10.11</t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-and-say/</t>
+  </si>
+  <si>
+    <t>2016.10.15</t>
   </si>
 </sst>
 </file>
@@ -348,13 +357,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,7 +395,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -400,116 +507,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,13 +521,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -537,25 +531,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,157 +693,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,35 +725,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,11 +768,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,166 +822,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,11 +994,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1321,10 +1312,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.2" defaultRowHeight="31" customHeight="1" outlineLevelCol="7"/>
@@ -1897,8 +1888,22 @@
       <c r="F37" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="1" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1947,6 +1952,7 @@
     <hyperlink ref="B35" r:id="rId34" display="https://leetcode.com/problems/path-sum/"/>
     <hyperlink ref="B36" r:id="rId35" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/"/>
     <hyperlink ref="B37" r:id="rId36" display="https://leetcode.com/problems/isomorphic-strings/"/>
+    <hyperlink ref="B38" r:id="rId37" display="https://leetcode.com/problems/count-and-say/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
